--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz Joekel\source\repos\CredentialLeakageMonitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8D61BC-9B86-4F96-8FD2-015130903B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32577AB-61BC-4903-91B4-BEADD9E88B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A97F8195-80A5-4440-B254-68AAA14C9DA5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A97F8195-80A5-4440-B254-68AAA14C9DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Verfahren</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>argon2.DegreeOfParallelism = 1; argon2.MemorySize = 8192; argon2.Iterations = 1; Konscious.Security.Cryptography</t>
+  </si>
+  <si>
+    <t>AES_256</t>
   </si>
 </sst>
 </file>
@@ -495,27 +498,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112916B0-1CBF-4C5B-BC7A-523B0D2A6D77}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="32.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="32.44140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -553,7 +556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -590,7 +593,7 @@
         <v>1847.3333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -610,7 +613,7 @@
         <v>1673</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G6" si="0">AVERAGE(D3:F3)</f>
+        <f t="shared" ref="G3:G7" si="0">AVERAGE(D3:F3)</f>
         <v>1717.6666666666667</v>
       </c>
       <c r="H3" s="2">
@@ -627,7 +630,7 @@
         <v>1863.6666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -660,11 +663,11 @@
         <v>1643</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K6" si="1">AVERAGE(H4:J4)</f>
+        <f t="shared" ref="K4:K7" si="1">AVERAGE(H4:J4)</f>
         <v>1743</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -701,7 +704,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -741,12 +744,47 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8352</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5884</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5745</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>6660.333333333333</v>
+      </c>
+      <c r="H7" s="2">
+        <v>370239</v>
+      </c>
+      <c r="I7" s="2">
+        <v>335273</v>
+      </c>
+      <c r="J7" s="2">
+        <v>355199</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="1"/>
+        <v>353570.33333333331</v>
+      </c>
       <c r="L7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L8" t="s">
         <v>8</v>
       </c>

--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz Joekel\source\repos\CredentialLeakageMonitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32577AB-61BC-4903-91B4-BEADD9E88B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85769E66-5239-4AF4-A680-A90CD4C3CAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A97F8195-80A5-4440-B254-68AAA14C9DA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Verfahren</t>
   </si>
@@ -496,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112916B0-1CBF-4C5B-BC7A-523B0D2A6D77}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,7 +613,7 @@
         <v>1673</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G7" si="0">AVERAGE(D3:F3)</f>
+        <f t="shared" ref="G3:G10" si="0">AVERAGE(D3:F3)</f>
         <v>1717.6666666666667</v>
       </c>
       <c r="H3" s="2">
@@ -663,7 +663,7 @@
         <v>1643</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K7" si="1">AVERAGE(H4:J4)</f>
+        <f t="shared" ref="K4:K10" si="1">AVERAGE(H4:J4)</f>
         <v>1743</v>
       </c>
     </row>
@@ -787,6 +787,80 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L8" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C9" s="2">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2">
+        <v>11182</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6957</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6497</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>8212</v>
+      </c>
+      <c r="H9" s="2">
+        <v>273190</v>
+      </c>
+      <c r="I9" s="2">
+        <v>274381</v>
+      </c>
+      <c r="J9" s="2">
+        <v>266992</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="1"/>
+        <v>271521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C10" s="2">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2">
+        <v>11337</v>
+      </c>
+      <c r="E10" s="2">
+        <v>11020</v>
+      </c>
+      <c r="F10" s="2">
+        <v>9067</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>10474.666666666666</v>
+      </c>
+      <c r="H10" s="2">
+        <v>317806</v>
+      </c>
+      <c r="I10" s="2">
+        <v>338090</v>
+      </c>
+      <c r="J10" s="2">
+        <v>261367</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="1"/>
+        <v>305754.33333333331</v>
       </c>
     </row>
   </sheetData>

--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz Joekel\source\repos\CredentialLeakageMonitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85769E66-5239-4AF4-A680-A90CD4C3CAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BE125A-F2A7-452A-97B4-132D7F72D5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A97F8195-80A5-4440-B254-68AAA14C9DA5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A97F8195-80A5-4440-B254-68AAA14C9DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Verfahren</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>AES_256</t>
+  </si>
+  <si>
+    <t>SHA_384</t>
   </si>
 </sst>
 </file>
@@ -498,27 +501,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112916B0-1CBF-4C5B-BC7A-523B0D2A6D77}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="32.44140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="29.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="32.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -556,7 +559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -593,7 +596,7 @@
         <v>1847.3333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -630,7 +633,7 @@
         <v>1863.6666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -638,20 +641,20 @@
         <v>100000</v>
       </c>
       <c r="C4" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
-        <v>1649</v>
+        <v>2005</v>
       </c>
       <c r="E4" s="2">
-        <v>1683</v>
+        <v>1809</v>
       </c>
       <c r="F4" s="2">
-        <v>1073</v>
+        <v>1566</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>1468.3333333333333</v>
+        <v>1793.3333333333333</v>
       </c>
       <c r="H4" s="2">
         <v>1992</v>
@@ -667,44 +670,44 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>100000</v>
       </c>
       <c r="C5" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
-        <v>1504</v>
+        <v>1758</v>
       </c>
       <c r="E5" s="2">
-        <v>1494</v>
+        <v>1524</v>
       </c>
       <c r="F5" s="2">
-        <v>1089</v>
+        <v>1139</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>1362.3333333333333</v>
+        <v>1473.6666666666667</v>
       </c>
       <c r="H5" s="2">
-        <v>2156</v>
+        <v>1127</v>
       </c>
       <c r="I5" s="2">
-        <v>1348</v>
+        <v>945</v>
       </c>
       <c r="J5" s="2">
-        <v>1389</v>
+        <v>997</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="1"/>
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -744,7 +747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -784,12 +787,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -826,7 +829,7 @@
         <v>271521</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>

--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz Joekel\source\repos\CredentialLeakageMonitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BE125A-F2A7-452A-97B4-132D7F72D5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27444813-89FB-4A5D-BB0E-4B7A26423491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A97F8195-80A5-4440-B254-68AAA14C9DA5}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>SHA3_512</t>
   </si>
   <si>
-    <t>SHA3_256</t>
-  </si>
-  <si>
     <t>SHA_512</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>SHA_384</t>
+  </si>
+  <si>
+    <t>SHA3_384</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,37 +526,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -567,75 +567,75 @@
         <v>100000</v>
       </c>
       <c r="C2" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2">
-        <v>2418</v>
+        <v>2643</v>
       </c>
       <c r="E2" s="2">
-        <v>1650</v>
+        <v>1545</v>
       </c>
       <c r="F2" s="2">
-        <v>1449</v>
+        <v>992</v>
       </c>
       <c r="G2" s="2">
         <f>AVERAGE(D2:F2)</f>
-        <v>1839</v>
+        <v>1726.6666666666667</v>
       </c>
       <c r="H2" s="2">
-        <v>2125</v>
+        <v>1379</v>
       </c>
       <c r="I2" s="2">
-        <v>1769</v>
+        <v>1162</v>
       </c>
       <c r="J2" s="2">
-        <v>1648</v>
+        <v>903</v>
       </c>
       <c r="K2" s="2">
         <f>AVERAGE(H2:J2)</f>
-        <v>1847.3333333333333</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>100000</v>
       </c>
       <c r="C3" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2">
-        <v>1811</v>
+        <v>1888</v>
       </c>
       <c r="E3" s="2">
-        <v>1669</v>
+        <v>1800</v>
       </c>
       <c r="F3" s="2">
-        <v>1673</v>
+        <v>1510</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" ref="G3:G10" si="0">AVERAGE(D3:F3)</f>
-        <v>1717.6666666666667</v>
+        <v>1732.6666666666667</v>
       </c>
       <c r="H3" s="2">
-        <v>2047</v>
+        <v>1241</v>
       </c>
       <c r="I3" s="2">
-        <v>1812</v>
+        <v>920</v>
       </c>
       <c r="J3" s="2">
-        <v>1732</v>
+        <v>860</v>
       </c>
       <c r="K3" s="2">
         <f>AVERAGE(H3:J3)</f>
-        <v>1863.6666666666667</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>100000</v>
@@ -657,22 +657,22 @@
         <v>1793.3333333333333</v>
       </c>
       <c r="H4" s="2">
-        <v>1992</v>
+        <v>1275</v>
       </c>
       <c r="I4" s="2">
-        <v>1594</v>
+        <v>1255</v>
       </c>
       <c r="J4" s="2">
-        <v>1643</v>
+        <v>875</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" ref="K4:K10" si="1">AVERAGE(H4:J4)</f>
-        <v>1743</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>100000</v>
@@ -709,161 +709,77 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>100000</v>
       </c>
-      <c r="C6" s="2">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2">
-        <v>228063</v>
-      </c>
-      <c r="E6" s="2">
-        <v>218248</v>
-      </c>
-      <c r="F6" s="2">
-        <v>213324</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="G6" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>219878.33333333334</v>
-      </c>
-      <c r="H6" s="2">
-        <v>228563</v>
-      </c>
-      <c r="I6" s="2">
-        <v>227429</v>
-      </c>
-      <c r="J6" s="2">
-        <v>224969</v>
-      </c>
-      <c r="K6" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>226987</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>100000</v>
       </c>
-      <c r="C7" s="2">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2">
-        <v>8352</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5884</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5745</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="G7" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>6660.333333333333</v>
-      </c>
-      <c r="H7" s="2">
-        <v>370239</v>
-      </c>
-      <c r="I7" s="2">
-        <v>335273</v>
-      </c>
-      <c r="J7" s="2">
-        <v>355199</v>
-      </c>
-      <c r="K7" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>353570.33333333331</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
         <v>1000000</v>
       </c>
-      <c r="C9" s="2">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2">
-        <v>11182</v>
-      </c>
-      <c r="E9" s="2">
-        <v>6957</v>
-      </c>
-      <c r="F9" s="2">
-        <v>6497</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="G9" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>8212</v>
-      </c>
-      <c r="H9" s="2">
-        <v>273190</v>
-      </c>
-      <c r="I9" s="2">
-        <v>274381</v>
-      </c>
-      <c r="J9" s="2">
-        <v>266992</v>
-      </c>
-      <c r="K9" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>271521</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1">
         <v>1000000</v>
       </c>
-      <c r="C10" s="2">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2">
-        <v>11337</v>
-      </c>
-      <c r="E10" s="2">
-        <v>11020</v>
-      </c>
-      <c r="F10" s="2">
-        <v>9067</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="G10" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>10474.666666666666</v>
-      </c>
-      <c r="H10" s="2">
-        <v>317806</v>
-      </c>
-      <c r="I10" s="2">
-        <v>338090</v>
-      </c>
-      <c r="J10" s="2">
-        <v>261367</v>
-      </c>
-      <c r="K10" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="2" t="e">
         <f t="shared" si="1"/>
-        <v>305754.33333333331</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz Joekel\source\repos\CredentialLeakageMonitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27444813-89FB-4A5D-BB0E-4B7A26423491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2171E912-1117-4701-8335-3093FCE7C537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A97F8195-80A5-4440-B254-68AAA14C9DA5}"/>
   </bookViews>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112916B0-1CBF-4C5B-BC7A-523B0D2A6D77}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,13 +714,34 @@
       <c r="B6" s="1">
         <v>100000</v>
       </c>
-      <c r="G6" s="2" t="e">
+      <c r="C6" s="2">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>285773</v>
+      </c>
+      <c r="E6" s="2">
+        <v>258742</v>
+      </c>
+      <c r="F6" s="2">
+        <v>252924</v>
+      </c>
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" s="2" t="e">
+        <v>265813</v>
+      </c>
+      <c r="H6" s="2">
+        <v>300256</v>
+      </c>
+      <c r="I6" s="2">
+        <v>291567</v>
+      </c>
+      <c r="J6" s="2">
+        <v>289534</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>293785.66666666669</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>

--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz Joekel\source\repos\CredentialLeakageMonitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2171E912-1117-4701-8335-3093FCE7C537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8291E8-0CB0-4FB5-8191-EE079EF3D85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A97F8195-80A5-4440-B254-68AAA14C9DA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Verfahren</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Argon2id</t>
   </si>
   <si>
-    <t>Bemerkungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  </t>
-  </si>
-  <si>
     <t xml:space="preserve">                </t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>Deduplizierung Durchschnitt in ms</t>
   </si>
   <si>
-    <t>argon2.DegreeOfParallelism = 1; argon2.MemorySize = 8192; argon2.Iterations = 1; Konscious.Security.Cryptography</t>
-  </si>
-  <si>
     <t>AES_256</t>
   </si>
   <si>
@@ -102,15 +93,19 @@
   </si>
   <si>
     <t>SHA3_384</t>
+  </si>
+  <si>
+    <t>Auf 500 Mio linear skaliert in min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -157,13 +152,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -499,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112916B0-1CBF-4C5B-BC7A-523B0D2A6D77}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +516,7 @@
     <col min="9" max="9" width="23.42578125" style="2" customWidth="1"/>
     <col min="10" max="10" width="23.140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="32.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="29.85546875" customWidth="1"/>
+    <col min="12" max="12" width="29.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -526,37 +524,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>5</v>
+      <c r="L1" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -595,10 +593,14 @@
         <f>AVERAGE(H2:J2)</f>
         <v>1148</v>
       </c>
+      <c r="L2" s="7">
+        <f>(K2*10*500)/1000/60/60</f>
+        <v>1.5944444444444446</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
         <v>100000</v>
@@ -616,7 +618,7 @@
         <v>1510</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G10" si="0">AVERAGE(D3:F3)</f>
+        <f t="shared" ref="G3:G15" si="0">AVERAGE(D3:F3)</f>
         <v>1732.6666666666667</v>
       </c>
       <c r="H3" s="2">
@@ -632,6 +634,10 @@
         <f>AVERAGE(H3:J3)</f>
         <v>1007</v>
       </c>
+      <c r="L3" s="7">
+        <f t="shared" ref="L3:L7" si="1">(K3*10*500)/1000/60/60</f>
+        <v>1.3986111111111112</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -666,13 +672,17 @@
         <v>875</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K10" si="1">AVERAGE(H4:J4)</f>
+        <f t="shared" ref="K4:K15" si="2">AVERAGE(H4:J4)</f>
         <v>1135</v>
+      </c>
+      <c r="L4" s="7">
+        <f t="shared" si="1"/>
+        <v>1.5763888888888888</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>100000</v>
@@ -703,8 +713,12 @@
         <v>997</v>
       </c>
       <c r="K5" s="2">
+        <f t="shared" si="2"/>
+        <v>1023</v>
+      </c>
+      <c r="L5" s="7">
         <f t="shared" si="1"/>
-        <v>1023</v>
+        <v>1.4208333333333334</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -740,35 +754,58 @@
         <v>289534</v>
       </c>
       <c r="K6" s="2">
+        <f t="shared" si="2"/>
+        <v>293785.66666666669</v>
+      </c>
+      <c r="L6" s="7">
         <f t="shared" si="1"/>
-        <v>293785.66666666669</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
+        <v>408.0356481481482</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>100000</v>
       </c>
-      <c r="G7" s="2" t="e">
+      <c r="C7" s="2">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1881</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1751</v>
+      </c>
+      <c r="F7" s="2">
+        <v>992</v>
+      </c>
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="2" t="e">
+        <v>1541.3333333333333</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1142</v>
+      </c>
+      <c r="I7" s="2">
+        <v>914</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1123</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="2"/>
+        <v>1059.6666666666667</v>
+      </c>
+      <c r="L7" s="7">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" t="s">
-        <v>6</v>
+        <v>1.4717592592592594</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L8" t="s">
-        <v>7</v>
+      <c r="L8" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -783,7 +820,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K9" s="2" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="7" t="e">
+        <f t="shared" ref="L9:L10" si="3">(K9*500)/1000/60/60</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -799,8 +840,140 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K10" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C11" s="2">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9427</v>
+      </c>
+      <c r="E11" s="2">
+        <v>9451</v>
+      </c>
+      <c r="F11" s="2">
+        <v>9058</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>9312</v>
+      </c>
+      <c r="H11" s="2">
+        <v>10312</v>
+      </c>
+      <c r="I11" s="2">
+        <v>9041</v>
+      </c>
+      <c r="J11" s="2">
+        <v>11012</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="2"/>
+        <v>10121.666666666666</v>
+      </c>
+      <c r="L11" s="7">
+        <f>(K11*500)/1000/60/60</f>
+        <v>1.4057870370370369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="C13" s="2">
+        <v>14</v>
+      </c>
+      <c r="G13" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="8" t="e">
+        <f t="shared" ref="L13:L14" si="4">(K13*250)/1000/60/60</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="C14" s="2">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="C15" s="2">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2">
+        <v>18091</v>
+      </c>
+      <c r="E15" s="2">
+        <v>17940</v>
+      </c>
+      <c r="F15" s="2">
+        <v>19170</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>18400.333333333332</v>
+      </c>
+      <c r="H15" s="2">
+        <v>19979</v>
+      </c>
+      <c r="I15" s="2">
+        <v>21329</v>
+      </c>
+      <c r="J15" s="2">
+        <v>24025</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="2"/>
+        <v>21777.666666666668</v>
+      </c>
+      <c r="L15" s="8">
+        <f>(K15*250)/1000/60/60</f>
+        <v>1.512337962962963</v>
       </c>
     </row>
   </sheetData>

--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz Joekel\source\repos\CredentialLeakageMonitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8291E8-0CB0-4FB5-8191-EE079EF3D85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC75EF38-679B-46A6-A68F-4AC1961222D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A97F8195-80A5-4440-B254-68AAA14C9DA5}"/>
   </bookViews>
@@ -95,7 +95,7 @@
     <t>SHA3_384</t>
   </si>
   <si>
-    <t>Auf 500 Mio linear skaliert in min</t>
+    <t>Auf 500 Mio linear skaliert in h</t>
   </si>
 </sst>
 </file>
@@ -105,7 +105,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -161,7 +161,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -500,7 +500,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,7 +672,7 @@
         <v>875</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K15" si="2">AVERAGE(H4:J4)</f>
+        <f t="shared" ref="K4:K14" si="2">AVERAGE(H4:J4)</f>
         <v>1135</v>
       </c>
       <c r="L4" s="7">
@@ -968,7 +968,7 @@
         <v>24025</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H15:J15)</f>
         <v>21777.666666666668</v>
       </c>
       <c r="L15" s="8">

--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz Joekel\source\repos\CredentialLeakageMonitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC75EF38-679B-46A6-A68F-4AC1961222D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1058E277-29EE-46E8-94DA-BFDB09EA0277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A97F8195-80A5-4440-B254-68AAA14C9DA5}"/>
+    <workbookView xWindow="-14505" yWindow="75" windowWidth="14610" windowHeight="15585" xr2:uid="{A97F8195-80A5-4440-B254-68AAA14C9DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Verfahren</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>SHA_512</t>
-  </si>
-  <si>
-    <t>SHA_256</t>
   </si>
   <si>
     <t>Argon2id</t>
@@ -499,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112916B0-1CBF-4C5B-BC7A-523B0D2A6D77}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,37 +521,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="K1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -600,7 +597,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>100000</v>
@@ -682,7 +679,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>100000</v>
@@ -723,7 +720,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>100000</v>
@@ -764,7 +761,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>100000</v>
@@ -805,27 +802,45 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L8" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
         <v>1000000</v>
       </c>
-      <c r="G9" s="2" t="e">
+      <c r="C9" s="2">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>12831</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10174</v>
+      </c>
+      <c r="F9" s="2">
+        <v>10178</v>
+      </c>
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" s="2" t="e">
+        <v>11061</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10178</v>
+      </c>
+      <c r="I9" s="2">
+        <v>11810</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="7" t="e">
+        <v>10994</v>
+      </c>
+      <c r="L9" s="7">
         <f t="shared" ref="L9:L10" si="3">(K9*500)/1000/60/60</f>
-        <v>#DIV/0!</v>
+        <v>1.5269444444444444</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -835,6 +850,9 @@
       <c r="B10" s="1">
         <v>1000000</v>
       </c>
+      <c r="C10" s="2">
+        <v>14</v>
+      </c>
       <c r="G10" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -850,7 +868,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>1000000</v>
@@ -891,7 +909,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
         <v>2000000</v>
@@ -899,17 +917,35 @@
       <c r="C13" s="2">
         <v>14</v>
       </c>
-      <c r="G13" s="2" t="e">
+      <c r="D13" s="2">
+        <v>17698</v>
+      </c>
+      <c r="E13" s="2">
+        <v>17809</v>
+      </c>
+      <c r="F13" s="2">
+        <v>19248</v>
+      </c>
+      <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" s="2" t="e">
+        <v>18251.666666666668</v>
+      </c>
+      <c r="H13" s="2">
+        <v>22495</v>
+      </c>
+      <c r="I13" s="2">
+        <v>21999</v>
+      </c>
+      <c r="J13" s="2">
+        <v>22660</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="8" t="e">
+        <v>22384.666666666668</v>
+      </c>
+      <c r="L13" s="8">
         <f t="shared" ref="L13:L14" si="4">(K13*250)/1000/60/60</f>
-        <v>#DIV/0!</v>
+        <v>1.5544907407407407</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -937,7 +973,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>2000000</v>

--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz Joekel\source\repos\CredentialLeakageMonitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1058E277-29EE-46E8-94DA-BFDB09EA0277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FFFD1E-B742-47CC-A914-091F409A32BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14505" yWindow="75" windowWidth="14610" windowHeight="15585" xr2:uid="{A97F8195-80A5-4440-B254-68AAA14C9DA5}"/>
   </bookViews>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112916B0-1CBF-4C5B-BC7A-523B0D2A6D77}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,13 +834,16 @@
       <c r="I9" s="2">
         <v>11810</v>
       </c>
+      <c r="J9" s="2">
+        <v>11621</v>
+      </c>
       <c r="K9" s="2">
         <f t="shared" si="2"/>
-        <v>10994</v>
+        <v>11203</v>
       </c>
       <c r="L9" s="7">
         <f t="shared" ref="L9:L10" si="3">(K9*500)/1000/60/60</f>
-        <v>1.5269444444444444</v>
+        <v>1.5559722222222223</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -853,17 +856,35 @@
       <c r="C10" s="2">
         <v>14</v>
       </c>
-      <c r="G10" s="2" t="e">
+      <c r="D10" s="2">
+        <v>10440</v>
+      </c>
+      <c r="E10" s="2">
+        <v>11770</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10308</v>
+      </c>
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="2" t="e">
+        <v>10839.333333333334</v>
+      </c>
+      <c r="H10" s="2">
+        <v>11174</v>
+      </c>
+      <c r="I10" s="2">
+        <v>11643</v>
+      </c>
+      <c r="J10" s="2">
+        <v>11730</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="7" t="e">
+        <v>11515.666666666666</v>
+      </c>
+      <c r="L10" s="7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.5993981481481481</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -958,17 +979,35 @@
       <c r="C14" s="2">
         <v>14</v>
       </c>
-      <c r="G14" s="2" t="e">
+      <c r="D14" s="2">
+        <v>18692</v>
+      </c>
+      <c r="E14" s="2">
+        <v>18628</v>
+      </c>
+      <c r="F14" s="2">
+        <v>18329</v>
+      </c>
+      <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" s="2" t="e">
+        <v>18549.666666666668</v>
+      </c>
+      <c r="H14" s="2">
+        <v>23011</v>
+      </c>
+      <c r="I14" s="2">
+        <v>21875</v>
+      </c>
+      <c r="J14" s="2">
+        <v>24593</v>
+      </c>
+      <c r="K14" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" s="8" t="e">
+        <v>23159.666666666668</v>
+      </c>
+      <c r="L14" s="8">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.6083101851851853</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">

--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz Joekel\source\repos\CredentialLeakageMonitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FFFD1E-B742-47CC-A914-091F409A32BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B75B084-938A-4D79-806F-D78914575AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="75" windowWidth="14610" windowHeight="15585" xr2:uid="{A97F8195-80A5-4440-B254-68AAA14C9DA5}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{A97F8195-80A5-4440-B254-68AAA14C9DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Verfahren</t>
   </si>
@@ -494,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112916B0-1CBF-4C5B-BC7A-523B0D2A6D77}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +615,7 @@
         <v>1510</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G15" si="0">AVERAGE(D3:F3)</f>
+        <f t="shared" ref="G3:G19" si="0">AVERAGE(D3:F3)</f>
         <v>1732.6666666666667</v>
       </c>
       <c r="H3" s="2">
@@ -669,7 +669,7 @@
         <v>875</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K14" si="2">AVERAGE(H4:J4)</f>
+        <f t="shared" ref="K4:K18" si="2">AVERAGE(H4:J4)</f>
         <v>1135</v>
       </c>
       <c r="L4" s="7">
@@ -807,7 +807,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>1000000</v>
@@ -816,39 +816,39 @@
         <v>14</v>
       </c>
       <c r="D9" s="2">
-        <v>12831</v>
+        <v>9828</v>
       </c>
       <c r="E9" s="2">
-        <v>10174</v>
+        <v>10317</v>
       </c>
       <c r="F9" s="2">
-        <v>10178</v>
+        <v>9784</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>11061</v>
+        <v>9976.3333333333339</v>
       </c>
       <c r="H9" s="2">
-        <v>10178</v>
+        <v>11752</v>
       </c>
       <c r="I9" s="2">
-        <v>11810</v>
+        <v>11436</v>
       </c>
       <c r="J9" s="2">
-        <v>11621</v>
+        <v>11257</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="2"/>
-        <v>11203</v>
+        <v>11481.666666666666</v>
       </c>
       <c r="L9" s="7">
-        <f t="shared" ref="L9:L10" si="3">(K9*500)/1000/60/60</f>
-        <v>1.5559722222222223</v>
+        <f t="shared" ref="L9:L12" si="3">(K9*500)/1000/60/60</f>
+        <v>1.594675925925926</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
         <v>1000000</v>
@@ -856,198 +856,326 @@
       <c r="C10" s="2">
         <v>14</v>
       </c>
-      <c r="D10" s="2">
+      <c r="G10" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C11" s="2">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12831</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10174</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10178</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>11061</v>
+      </c>
+      <c r="H11" s="2">
+        <v>10178</v>
+      </c>
+      <c r="I11" s="2">
+        <v>11810</v>
+      </c>
+      <c r="J11" s="2">
+        <v>11621</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="2"/>
+        <v>11203</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="3"/>
+        <v>1.5559722222222223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C12" s="2">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
         <v>10440</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E12" s="2">
         <v>11770</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F12" s="2">
         <v>10308</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G12" s="2">
         <f t="shared" si="0"/>
         <v>10839.333333333334</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H12" s="2">
         <v>11174</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I12" s="2">
         <v>11643</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J12" s="2">
         <v>11730</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K12" s="2">
         <f t="shared" si="2"/>
         <v>11515.666666666666</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L12" s="7">
         <f t="shared" si="3"/>
         <v>1.5993981481481481</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B13" s="1">
         <v>1000000</v>
       </c>
-      <c r="C11" s="2">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C13" s="2">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2">
         <v>9427</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E13" s="2">
         <v>9451</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F13" s="2">
         <v>9058</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G13" s="2">
         <f t="shared" si="0"/>
         <v>9312</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H13" s="2">
         <v>10312</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I13" s="2">
         <v>9041</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J13" s="2">
         <v>11012</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K13" s="2">
         <f t="shared" si="2"/>
         <v>10121.666666666666</v>
       </c>
-      <c r="L11" s="7">
-        <f>(K11*500)/1000/60/60</f>
+      <c r="L13" s="7">
+        <f>(K13*500)/1000/60/60</f>
         <v>1.4057870370370369</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="C15" s="2">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2">
+        <v>19946</v>
+      </c>
+      <c r="E15" s="2">
+        <v>19402</v>
+      </c>
+      <c r="F15" s="2">
+        <v>20340</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>19896</v>
+      </c>
+      <c r="H15" s="2">
+        <v>21951</v>
+      </c>
+      <c r="I15" s="2">
+        <v>24499</v>
+      </c>
+      <c r="J15" s="2">
+        <v>24550</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="2"/>
+        <v>23666.666666666668</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" ref="L15:L18" si="4">(K15*250)/1000/60/60</f>
+        <v>1.6435185185185186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="C16" s="2">
+        <v>14</v>
+      </c>
+      <c r="G16" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B17" s="1">
         <v>2000000</v>
       </c>
-      <c r="C13" s="2">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C17" s="2">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2">
         <v>17698</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E17" s="2">
         <v>17809</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F17" s="2">
         <v>19248</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G17" s="2">
         <f t="shared" si="0"/>
         <v>18251.666666666668</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H17" s="2">
         <v>22495</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I17" s="2">
         <v>21999</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J17" s="2">
         <v>22660</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K17" s="2">
         <f t="shared" si="2"/>
         <v>22384.666666666668</v>
       </c>
-      <c r="L13" s="8">
-        <f t="shared" ref="L13:L14" si="4">(K13*250)/1000/60/60</f>
+      <c r="L17" s="8">
+        <f t="shared" si="4"/>
         <v>1.5544907407407407</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B18" s="1">
         <v>2000000</v>
       </c>
-      <c r="C14" s="2">
-        <v>14</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C18" s="2">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
         <v>18692</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E18" s="2">
         <v>18628</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F18" s="2">
         <v>18329</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G18" s="2">
         <f t="shared" si="0"/>
         <v>18549.666666666668</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H18" s="2">
         <v>23011</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I18" s="2">
         <v>21875</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J18" s="2">
         <v>24593</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K18" s="2">
         <f t="shared" si="2"/>
         <v>23159.666666666668</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L18" s="8">
         <f t="shared" si="4"/>
         <v>1.6083101851851853</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B19" s="1">
         <v>2000000</v>
       </c>
-      <c r="C15" s="2">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C19" s="2">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2">
         <v>18091</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E19" s="2">
         <v>17940</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F19" s="2">
         <v>19170</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G19" s="2">
         <f t="shared" si="0"/>
         <v>18400.333333333332</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H19" s="2">
         <v>19979</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I19" s="2">
         <v>21329</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J19" s="2">
         <v>24025</v>
       </c>
-      <c r="K15" s="2">
-        <f>AVERAGE(H15:J15)</f>
+      <c r="K19" s="2">
+        <f>AVERAGE(H19:J19)</f>
         <v>21777.666666666668</v>
       </c>
-      <c r="L15" s="8">
-        <f>(K15*250)/1000/60/60</f>
+      <c r="L19" s="8">
+        <f>(K19*250)/1000/60/60</f>
         <v>1.512337962962963</v>
       </c>
     </row>

--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz Joekel\source\repos\CredentialLeakageMonitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B75B084-938A-4D79-806F-D78914575AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D4A283-E965-4392-A00B-2163C1D9EB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{A97F8195-80A5-4440-B254-68AAA14C9DA5}"/>
+    <workbookView xWindow="-14505" yWindow="75" windowWidth="14610" windowHeight="15585" xr2:uid="{A97F8195-80A5-4440-B254-68AAA14C9DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112916B0-1CBF-4C5B-BC7A-523B0D2A6D77}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,17 +856,35 @@
       <c r="C10" s="2">
         <v>14</v>
       </c>
-      <c r="G10" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="2" t="e">
+      <c r="D10" s="2">
+        <v>10952</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9042</v>
+      </c>
+      <c r="F10" s="2">
+        <v>9875</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>9956.3333333333339</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10246</v>
+      </c>
+      <c r="I10" s="2">
+        <v>10249</v>
+      </c>
+      <c r="J10" s="2">
+        <v>10333</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="7" t="e">
+        <v>10276</v>
+      </c>
+      <c r="L10" s="7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.4272222222222224</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1043,17 +1061,35 @@
       <c r="C16" s="2">
         <v>14</v>
       </c>
-      <c r="G16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K16" s="2" t="e">
+      <c r="D16" s="2">
+        <v>19230</v>
+      </c>
+      <c r="E16" s="2">
+        <v>18670</v>
+      </c>
+      <c r="F16" s="2">
+        <v>18677</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>18859</v>
+      </c>
+      <c r="H16" s="2">
+        <v>21042</v>
+      </c>
+      <c r="I16" s="2">
+        <v>21777</v>
+      </c>
+      <c r="J16" s="2">
+        <v>23961</v>
+      </c>
+      <c r="K16" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="8" t="e">
+        <v>22260</v>
+      </c>
+      <c r="L16" s="8">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.5458333333333334</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
